--- a/test_data/OpenCart_Data.xlsx
+++ b/test_data/OpenCart_Data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OpenCart_Partners" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenCart_Contact_Us" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>${email}</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>+44 1296 584015</t>
+  </si>
+  <si>
+    <t>${query_question}</t>
+  </si>
+  <si>
+    <t>${validation_1}</t>
+  </si>
+  <si>
+    <t>${validation_2}</t>
+  </si>
+  <si>
+    <t>I have a partnership question</t>
+  </si>
+  <si>
+    <t>opencart@zendesk.com</t>
+  </si>
+  <si>
+    <t>Please provide as much information in the form below for our agents to be able to assist you.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -475,12 +493,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="83.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
